--- a/resources/experiment 2/metrics/MAPE/upto time/Ceguera (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Ceguera (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2971975655329740</v>
+        <v>2971975655329742</v>
       </c>
       <c r="C2" t="n">
-        <v>2971975655329740</v>
+        <v>2971975655329742</v>
       </c>
       <c r="D2" t="n">
-        <v>2971975655329740</v>
+        <v>2971975655329742</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12172970713702.03</v>
+        <v>16965079690292.61</v>
       </c>
       <c r="C3" t="n">
-        <v>12172970713702.03</v>
+        <v>5884185865701.873</v>
       </c>
       <c r="D3" t="n">
-        <v>12172970713702.03</v>
+        <v>105979022492249.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9522183675588.662</v>
+        <v>4812777585615.108</v>
       </c>
       <c r="C4" t="n">
-        <v>9519068732612.334</v>
+        <v>5811478685486.691</v>
       </c>
       <c r="D4" t="n">
-        <v>9519068732612.334</v>
+        <v>21583745515484.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>197314539492390.1</v>
+        <v>151257572606756.2</v>
       </c>
       <c r="C5" t="n">
-        <v>197314539492390.1</v>
+        <v>614780850147377.9</v>
       </c>
       <c r="D5" t="n">
-        <v>197314539492390.1</v>
+        <v>1957504402503985</v>
       </c>
     </row>
   </sheetData>
